--- a/Semester_5/AdvancedOpticsLab/Record/Resources/Experiment3/NMRdataAnalysis/diffusion.xlsx
+++ b/Semester_5/AdvancedOpticsLab/Record/Resources/Experiment3/NMRdataAnalysis/diffusion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,11 +264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-385478208"/>
-        <c:axId val="-385477664"/>
+        <c:axId val="-439026032"/>
+        <c:axId val="-439024944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-385478208"/>
+        <c:axId val="-439026032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -325,12 +325,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-385477664"/>
+        <c:crossAx val="-439024944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-385477664"/>
+        <c:axId val="-439024944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,7 +387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-385478208"/>
+        <c:crossAx val="-439026032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -613,11 +613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-385476576"/>
-        <c:axId val="-385478752"/>
+        <c:axId val="-439028208"/>
+        <c:axId val="-439029840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-385476576"/>
+        <c:axId val="-439028208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,12 +674,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-385478752"/>
+        <c:crossAx val="-439029840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-385478752"/>
+        <c:axId val="-439029840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-385476576"/>
+        <c:crossAx val="-439028208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
